--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">duration</t>
   </si>
   <si>
+    <t xml:space="preserve">notice</t>
+  </si>
+  <si>
     <t xml:space="preserve">description</t>
   </si>
   <si>
@@ -49,7 +52,13 @@
     <t xml:space="preserve">short</t>
   </si>
   <si>
-    <t xml:space="preserve">HIPPo : c’est la personne la mieux payée (une autre façon de dire le chef) qui décide pour tout le monde. Oligarchie (les plus âgés décident). Vote féminin/masculin (seul.e.s les filles/garçons décident). </t>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIPPo : C’est le chef (la personne la plus importante, la mieux payée, la plus forte...) qui décide pour tout le monde. 
+Variantes : 
+Oligarchie (les plus âgés décident). 
+Vote féminin/masculin (seul.e.s les filles/garçons décident). </t>
   </si>
   <si>
     <t xml:space="preserve">Consensus</t>
@@ -61,7 +70,7 @@
     <t xml:space="preserve">long</t>
   </si>
   <si>
-    <t xml:space="preserve">Toutes les personnes qui participent à la décision doivent être d’accord.</t>
+    <t xml:space="preserve">&lt;b&gt;Toutes&lt;/b&gt; les personnes qui participent à la décision doivent &lt;b&gt;être d’accord&lt;/b&gt;.</t>
   </si>
   <si>
     <t xml:space="preserve">Majorité</t>
@@ -73,7 +82,10 @@
     <t xml:space="preserve">medium</t>
   </si>
   <si>
-    <t xml:space="preserve">simple, 2/3, à deux tours…</t>
+    <t xml:space="preserve">Majorité &lt;b&gt;simple&lt;/b&gt; : la proposition ou la personne doit réunir plus de voix que les autres
+Majorité &lt;b&gt;absolue&lt;/b&gt; : la proposition ou la personne doit réunir au moins la moitié des voix exprimées
+Majorité &lt;b&gt;des 2/3&lt;/b&gt; : la proposition ou la personne doit réunir au moins deux tiers des voix exprimées, 
+À deux tours…</t>
   </si>
   <si>
     <t xml:space="preserve">Réticence</t>
@@ -82,7 +94,7 @@
     <t xml:space="preserve">forearm</t>
   </si>
   <si>
-    <t xml:space="preserve">Les personnes lèvent une main quand elles sont réticentes sur une proposition et deux mains quand elles sont très réticentes. Le choix qui a le moins de réticences est sélectionné.</t>
+    <t xml:space="preserve">Les personnes lèvent une main quand elles sont réticentes sur une proposition et deux mains quand elles sont très réticentes. Le choix qui a le &lt;b&gt;moins de réticences&lt;/b&gt; est sélectionné.</t>
   </si>
   <si>
     <t xml:space="preserve">Consentement</t>
@@ -92,10 +104,10 @@
   </si>
   <si>
     <t xml:space="preserve">Les participants peuvent répondre par 3 choix :
- - Je suis d’accord : pouce levé
- - Je consens : main horizontale ou à plat. En consentant, j’exprime une opinion. Je consens que la personne ayant proposé aille plus loin.
- - Je mets mon veto : pouce en bas. Si je mets un veto, je dois expliquer les raisons de mon veto et proposer une porte de sortie. Je serais d’accord si… 
-Pour que la décision soit prise, il ne faut pas de veto et une majorité de vote ‘Pour’.</t>
+ - Je suis d’accord : &lt;b&gt;pouce levé&lt;/b&gt;
+ - Je consens : &lt;b&gt;main horizontale ou à plat&lt;/b&gt;. En consentant, j’exprime une opinion. Je consens que la personne ayant proposé aille plus loin.
+ - Je mets mon veto : &lt;b&gt;pouce en bas&lt;/b&gt;. Si je mets un veto, je dois expliquer les raisons de mon veto et proposer une porte de sortie. Je serais d’accord si… 
+Pour que la décision soit prise, il ne faut aucun veto et une majorité de ‘Pour’.</t>
   </si>
   <si>
     <t xml:space="preserve">Conseil</t>
@@ -104,7 +116,9 @@
     <t xml:space="preserve">teacher</t>
   </si>
   <si>
-    <t xml:space="preserve">Une personne veut prendre une décision. Elle se doit d’aller prendre l’avis de toutes les personnes impactées par sa décision ainsi que de prendre conseil auprès des personnes compétentes sur le sujet de la décision. Ensuite, la personne prend sa décision.</t>
+    <t xml:space="preserve">Une personne veut prendre une décision.
+Elle se doit d’aller prendre l’avis de &lt;b&gt;toutes&lt;/b&gt; les personnes impactées par sa décision ainsi que de prendre conseil auprès des personnes compétentes sur le sujet de la décision.
+Ensuite, la personne prend sa décision.</t>
   </si>
   <si>
     <t xml:space="preserve">Tirage au sort</t>
@@ -113,39 +127,101 @@
     <t xml:space="preserve">vote</t>
   </si>
   <si>
-    <t xml:space="preserve">Tirage au sort de la solution/proposition/personne</t>
+    <t xml:space="preserve">On tire au sort de la solution/proposition/personne qui sera retenue.
+C’est le hasard qui décide !!!</t>
   </si>
   <si>
     <t xml:space="preserve">Choix commun</t>
   </si>
   <si>
-    <t xml:space="preserve">Chaque proposition/candidat reçoit une mention compréhensible par tous
- - Très bien
- - Bien
- - Assez bien
- - Passable
- - Insuffisant
- - A rejeter</t>
+    <t xml:space="preserve">Chaque votant donne à chacune des propositions une mention compréhensible par tous : Excellent/Très bien/Bien/Assez bien/Passable/Insuffisant/À rejeter. 
+En prenant en compte l’ensemble des votes, cela donne à chaque proposition, un profil. 
+La proposition, qui a le meilleur profil est choisi : c’est celui qui aura les mentions les plus favorables. 
+Et si aucun.e proposition, n’a de profil très favorable, on peut rediscuter des propositions !</t>
   </si>
   <si>
     <t xml:space="preserve">Bac à sable</t>
   </si>
   <si>
-    <t xml:space="preserve">Concrete-bag</t>
+    <t xml:space="preserve">concrete-bag</t>
   </si>
   <si>
     <t xml:space="preserve">s</t>
   </si>
   <si>
-    <t xml:space="preserve">Les participants modélisent par petit groupe une solution au problème.
-Pour cela, ils ont a leur disposition du matériel créatif et des pions/personnages.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vote australien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les votants classent l’ensemble des propositions sur leur bulletin
-A chaque tour, les votes de la proposition la moins représentée sont transferés vers la proposition correspondant au tour dans le classement.</t>
+    <t xml:space="preserve">Les participants &lt;b&gt;représentent&lt;/b&gt; par petit groupe le problème à l’aide de materiel créatif. Ils peuvent ensuitre trouver une ou des solutions en &lt;b&gt;interagissant directement avec la construction&lt;/b&gt; pour valider leur réalisation.
+Exemple de matériel créatif : 
+ - pions/personnages/billes plates
+ - carton
+ - pate à modeler
+ - feutres
+ - Lego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boule de neige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La problèmatique est présentée à tous.
+Les participants font &lt;b&gt;chacun une proposition&lt;/b&gt; sur un post-it. Les post-its sont présentés à tous.
+Ensuite, pour chaque nouveau tour, les &lt;b&gt;nouvelles propositions&lt;/b&gt; devront venir &lt;b&gt;enrichir&lt;/b&gt; ou &lt;b&gt;rebondir&lt;/b&gt; sur les post-it déjà présents.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nappes tournantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une ou plusieurs questions-problématiques sont inscrites sur &lt;b&gt;chaque coin d’une nappe&lt;/b&gt;.
+Les participants doivent répondre, en 3-5 min, à la question &lt;b&gt;devant eux&lt;/b&gt;.
+A la fin du temps imparti, &lt;b&gt;la nappe tourne&lt;/b&gt; devant les participants. Et on recommence.
+Astuces :
+Faire autant de tours que de participants. Chacun pourra ainsi enrichir chaque sujet.
+Augmenter le temps imparti si les participants n’ont pas le temps de tout lire.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Café</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coffee-mug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il faut au moins 3 tables avec 4 personnes par table.
+Phase 1: chaque table &lt;b&gt;répond&lt;/b&gt; à la même question et &lt;b&gt;inscrit&lt;/b&gt; ses réponses sur la feuille de la table.
+Phase 2 et 3: chaque table désigne un &lt;b&gt;ambassadeur&lt;/b&gt;. Il reste et explique la démarche de la table, les autres participants se répartissent sur les autres tables. La tablée répond à une nouvelle question.
+Phase 4: restitution &lt;b&gt;en commun&lt;/b&gt; de ce qui a été dit sur chaque table. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mind map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Au centre de la feuille/tableau, Écrire &lt;b&gt;un&lt;/b&gt; mot/une phrase qui résume la problématique.
+Raccrocher les mots/concepts qui &lt;b&gt;gravitent&lt;/b&gt; autour, les mettre sous forme d'ilôt.
+Enrichir les concepts représentés.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Théâtre forum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drama-masks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Mettre en scène&lt;/b&gt; la problématique.
+Celui qui souhaite enrichir peut &lt;b&gt;interrompre&lt;/b&gt; la scène et mettre son &lt;b&gt;grain de sel&lt;/b&gt;.
+Prendre le temps de discuter la saynète et de noter les solutions possibles</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">none</t>
   </si>
 </sst>
 </file>
@@ -155,11 +231,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -175,12 +252,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -225,17 +296,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -259,18 +326,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="47.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="11.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -289,172 +359,295 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="114" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="118.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="69.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="78.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="0"/>
+      <c r="F15" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -462,8 +655,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -55,8 +55,8 @@
     <t xml:space="preserve">x</t>
   </si>
   <si>
-    <t xml:space="preserve">HIPPo : C’est le chef (la personne la plus importante, la mieux payée, la plus forte...) qui décide pour tout le monde. 
-Variantes : 
+    <t xml:space="preserve">HIPPo : C’est le chef (la personne la plus importante, la mieux payée, la plus forte…) qui décide pour tout le monde.
+&lt;u&gt;Variantes :&lt;/u&gt;
 Oligarchie (les plus âgés décident). 
 Vote féminin/masculin (seul.e.s les filles/garçons décident). </t>
   </si>
@@ -107,7 +107,7 @@
  - Je suis d’accord : &lt;b&gt;pouce levé&lt;/b&gt;
  - Je consens : &lt;b&gt;main horizontale ou à plat&lt;/b&gt;. En consentant, j’exprime une opinion. Je consens que la personne ayant proposé aille plus loin.
  - Je mets mon veto : &lt;b&gt;pouce en bas&lt;/b&gt;. Si je mets un veto, je dois expliquer les raisons de mon veto et proposer une porte de sortie. Je serais d’accord si… 
-Pour que la décision soit prise, il ne faut aucun veto et une majorité de ‘Pour’.</t>
+Pour que la décision soit prise, il ne faut aucun veto et majorité de ‘Pour’.</t>
   </si>
   <si>
     <t xml:space="preserve">Conseil</t>
@@ -134,10 +134,10 @@
     <t xml:space="preserve">Choix commun</t>
   </si>
   <si>
-    <t xml:space="preserve">Chaque votant donne à chacune des propositions une mention compréhensible par tous : Excellent/Très bien/Bien/Assez bien/Passable/Insuffisant/À rejeter. 
-En prenant en compte l’ensemble des votes, cela donne à chaque proposition, un profil. 
-La proposition, qui a le meilleur profil est choisi : c’est celui qui aura les mentions les plus favorables. 
-Et si aucun.e proposition, n’a de profil très favorable, on peut rediscuter des propositions !</t>
+    <t xml:space="preserve">Chaque votant donne à chacune des propositions une mention claire pour tous : Excellent/Très bien/Bien/Assez bien/Passable/Insuffisant/À rejeter. 
+En prenant en compte l’ensemble des votes, cela donne à chaque proposition un profil. 
+La proposition, qui a le meilleur profil est choisie : c’est celui qui aura les mentions les plus favorables. 
+Si aucune proposition n’a de profil très favorable, on peut rediscuter celles-ci !</t>
   </si>
   <si>
     <t xml:space="preserve">Bac à sable</t>
@@ -176,12 +176,13 @@
     <t xml:space="preserve">table</t>
   </si>
   <si>
-    <t xml:space="preserve">Une ou plusieurs questions-problématiques sont inscrites sur &lt;b&gt;chaque coin d’une nappe&lt;/b&gt;.
+    <t xml:space="preserve">Une ou plusieurs problématiques sont inscrites sur &lt;b&gt;chaque coin d’une nappe&lt;/b&gt;.
 Les participants doivent répondre, en 3-5 min, à la question &lt;b&gt;devant eux&lt;/b&gt;.
 A la fin du temps imparti, &lt;b&gt;la nappe tourne&lt;/b&gt; devant les participants. Et on recommence.
-Astuces :
+&lt;u&gt;Astuces :&lt;/u&gt;
 Faire autant de tours que de participants. Chacun pourra ainsi enrichir chaque sujet.
-Augmenter le temps imparti si les participants n’ont pas le temps de tout lire.</t>
+Augmenter le temps imparti si les participants n’ont pas le temps de 
+tout lire.</t>
   </si>
   <si>
     <t xml:space="preserve">World Café</t>
@@ -203,7 +204,7 @@
   </si>
   <si>
     <t xml:space="preserve">Au centre de la feuille/tableau, Écrire &lt;b&gt;un&lt;/b&gt; mot/une phrase qui résume la problématique.
-Raccrocher les mots/concepts qui &lt;b&gt;gravitent&lt;/b&gt; autour, les mettre sous forme d'ilôt.
+Raccrocher les mots/concepts qui &lt;b&gt;gravitent&lt;/b&gt; autour, les mettre sous forme d'ilôts.
 Enrichir les concepts représentés.</t>
   </si>
   <si>
@@ -231,7 +232,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -252,6 +253,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -296,7 +303,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -307,6 +314,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -326,10 +337,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -363,7 +374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -434,7 +445,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="114" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="98.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -450,6 +461,7 @@
       <c r="F6" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -468,7 +480,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="33.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -485,7 +497,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="89.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -539,7 +551,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="69.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="118.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -573,7 +585,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -591,17 +603,15 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="0"/>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="0"/>
       <c r="F15" s="2" t="s">
         <v>52</v>
       </c>
@@ -655,8 +665,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>